--- a/Report/Yahoo Finance_2021-02-12.xlsx
+++ b/Report/Yahoo Finance_2021-02-12.xlsx
@@ -14,7 +14,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>17.01</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>31.71</t>
+  </si>
+  <si>
+    <t>77.16</t>
+  </si>
+  <si>
+    <t>21.08</t>
+  </si>
+  <si>
+    <t>21.85</t>
+  </si>
+  <si>
+    <t>59.83</t>
+  </si>
+  <si>
+    <t>29.95</t>
+  </si>
+  <si>
+    <t>29.65</t>
+  </si>
+  <si>
+    <t>11.93</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>35.13</t>
+  </si>
+  <si>
+    <t>23.31</t>
+  </si>
+  <si>
+    <t>20.26</t>
+  </si>
+  <si>
+    <t>17.52</t>
+  </si>
+  <si>
+    <t>22.47</t>
+  </si>
+  <si>
+    <t>17.53</t>
+  </si>
+  <si>
+    <t>19.44</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>8.82</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>15.77</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>8.89</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>21.42</t>
+  </si>
+  <si>
+    <t>28.45</t>
+  </si>
+  <si>
+    <t>16.05</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>25.35</t>
+  </si>
+  <si>
+    <t>13.52</t>
+  </si>
+  <si>
+    <t>15.68</t>
+  </si>
   <si>
     <t>183.42</t>
   </si>
@@ -22,22 +241,22 @@
     <t>46.47</t>
   </si>
   <si>
-    <t>-11.07</t>
-  </si>
-  <si>
-    <t>29.02</t>
-  </si>
-  <si>
-    <t>-640.25</t>
-  </si>
-  <si>
-    <t>12.56</t>
-  </si>
-  <si>
-    <t>7.58</t>
-  </si>
-  <si>
-    <t>-27.00</t>
+    <t>-11.75</t>
+  </si>
+  <si>
+    <t>29.24</t>
+  </si>
+  <si>
+    <t>-635.50</t>
+  </si>
+  <si>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>-27.11</t>
   </si>
   <si>
     <t>1.88</t>
@@ -55,52 +274,43 @@
     <t>1.72</t>
   </si>
   <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>0.57</t>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
   <si>
     <t>0.62</t>
   </si>
   <si>
-    <t>50.22</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.36</t>
+    <t>50.42</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>1.33</t>
   </si>
   <si>
     <t>2.46</t>
   </si>
   <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>5.57</t>
-  </si>
-  <si>
-    <t>3.40</t>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>4.52</t>
   </si>
   <si>
     <t>1.80</t>
@@ -130,7 +340,7 @@
     <t>1.84</t>
   </si>
   <si>
-    <t>1.75</t>
+    <t>1.57</t>
   </si>
   <si>
     <t>17.17</t>
@@ -160,10 +370,16 @@
     <t>-10.59</t>
   </si>
   <si>
-    <t>-58.41</t>
-  </si>
-  <si>
-    <t>February-12-2021 03:12 PM</t>
+    <t>17.19</t>
+  </si>
+  <si>
+    <t>February-12-2021 04:15 PM</t>
+  </si>
+  <si>
+    <t>Digital Consultancies</t>
+  </si>
+  <si>
+    <t>Digital Media Solutions</t>
   </si>
   <si>
     <t>Market Cap</t>
@@ -233,9 +449,6 @@
   </si>
   <si>
     <t>Marchex</t>
-  </si>
-  <si>
-    <t>Digital Media Solutions</t>
   </si>
   <si>
     <t>Quotient</t>
@@ -602,95 +815,134 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="10" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>18541549568</v>
       </c>
       <c r="C4">
-        <v>14181768192</v>
-      </c>
-      <c r="D4">
-        <v>18541549568</v>
-      </c>
-      <c r="E4">
-        <v>14181768192</v>
+        <v>14235511808</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>13853806592</v>
       </c>
       <c r="C5">
-        <v>13984886784</v>
-      </c>
-      <c r="D5">
-        <v>13853806592</v>
-      </c>
-      <c r="E5">
-        <v>13984886784</v>
+        <v>14038882304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>14334949376</v>
       </c>
       <c r="C6">
-        <v>9579259904</v>
-      </c>
-      <c r="D6">
-        <v>14334949376</v>
-      </c>
-      <c r="E6">
-        <v>9579259904</v>
+        <v>9606561792</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>10155905024</v>
@@ -698,135 +950,237 @@
       <c r="C7">
         <v>9807683584</v>
       </c>
-      <c r="D7">
-        <v>10155905024</v>
-      </c>
-      <c r="E7">
-        <v>9807683584</v>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>158701486080</v>
       </c>
       <c r="C8">
-        <v>169821257728</v>
-      </c>
-      <c r="D8">
-        <v>158701486080</v>
-      </c>
-      <c r="E8">
-        <v>169821257728</v>
+        <v>170669342720</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>18621143040</v>
       </c>
       <c r="C9">
-        <v>16246643712</v>
-      </c>
-      <c r="D9">
-        <v>18621143040</v>
-      </c>
-      <c r="E9">
-        <v>16246643712</v>
+        <v>16341287936</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>1503686912</v>
       </c>
       <c r="C10">
-        <v>1289935744</v>
-      </c>
-      <c r="D10">
-        <v>1503686912</v>
-      </c>
-      <c r="E10">
-        <v>1289935744</v>
+        <v>1295653504</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>13053213696</v>
       </c>
       <c r="C11">
-        <v>11381744640</v>
-      </c>
-      <c r="D11">
-        <v>13053213696</v>
-      </c>
-      <c r="E11">
-        <v>11381744640</v>
+        <v>11381401600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>3915361536</v>
       </c>
       <c r="C12">
-        <v>3784419584</v>
-      </c>
-      <c r="D12">
-        <v>3915361536</v>
-      </c>
-      <c r="E12">
-        <v>3784419584</v>
+        <v>3797970944</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>2246746880</v>
       </c>
       <c r="C13">
-        <v>2037602304</v>
-      </c>
-      <c r="D13">
-        <v>2246746880</v>
-      </c>
-      <c r="E13">
-        <v>2037602304</v>
+        <v>2031991040</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>39828099072</v>
       </c>
       <c r="C14">
-        <v>40658948096</v>
-      </c>
-      <c r="D14">
-        <v>39828099072</v>
-      </c>
-      <c r="E14">
-        <v>40658948096</v>
+        <v>40788799488</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>1748323072</v>
@@ -834,297 +1188,317 @@
       <c r="C15">
         <v>1557251840</v>
       </c>
-      <c r="D15">
-        <v>1748323072</v>
-      </c>
-      <c r="E15">
-        <v>1557251840</v>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="B25">
+        <v>557047552</v>
+      </c>
+      <c r="C25">
+        <v>532053536</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="B26">
+        <v>86144880</v>
+      </c>
+      <c r="C26">
+        <v>130187272</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B27">
+        <v>569178752</v>
+      </c>
+      <c r="C27">
+        <v>768438720</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="B28">
+        <v>875633024</v>
+      </c>
+      <c r="C28">
+        <v>1156681216</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
+        <v>146</v>
+      </c>
+      <c r="B29">
+        <v>223233696</v>
+      </c>
+      <c r="C29">
+        <v>152063984</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="B30">
+        <v>1383601280</v>
+      </c>
+      <c r="C30">
+        <v>748709888</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
+        <v>148</v>
+      </c>
+      <c r="B31">
+        <v>53368656</v>
+      </c>
+      <c r="C31">
+        <v>89228800</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
+        <v>149</v>
+      </c>
+      <c r="B32">
+        <v>28233278</v>
+      </c>
+      <c r="C32">
+        <v>22717800</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
+        <v>150</v>
+      </c>
+      <c r="B33">
+        <v>34174432</v>
+      </c>
+      <c r="C33">
+        <v>24579676</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="B34">
+        <v>17085084</v>
+      </c>
+      <c r="C34">
+        <v>14719166</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
